--- a/CSV/timeTest/Tmeas20_oldPID_anal.xlsx
+++ b/CSV/timeTest/Tmeas20_oldPID_anal.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditte\aauRepo\esd7_git\3Dprinter-BLDC-control\CSV\timeTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B614F5CB-1D51-47EF-A94B-1EC24C7D2006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C163ED1-E7EB-4C3F-95FA-BEEDF96A9B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D1D11FB7-15FA-48F1-9064-01D9137D6E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Tmeas20_oldPID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3814,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BDEB84-B9D7-42B8-AF5F-34B0160FA556}">
   <dimension ref="A1:N356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="E1:E1048576 C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
